--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Nrxn1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,123 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.10427017168101</v>
+        <v>0.1061463333333333</v>
       </c>
       <c r="H2">
-        <v>0.10427017168101</v>
+        <v>0.318439</v>
       </c>
       <c r="I2">
-        <v>0.1554625224259089</v>
+        <v>0.08164208687920578</v>
       </c>
       <c r="J2">
-        <v>0.1554625224259089</v>
+        <v>0.08164208687920581</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.373032339735939</v>
+        <v>0.4427803333333333</v>
       </c>
       <c r="N2">
-        <v>0.373032339735939</v>
+        <v>1.328341</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8536830050153855</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.8536830050153855</v>
       </c>
       <c r="Q2">
-        <v>0.03889614610683521</v>
+        <v>0.04699950885544445</v>
       </c>
       <c r="R2">
-        <v>0.03889614610683521</v>
+        <v>0.422995579699</v>
       </c>
       <c r="S2">
-        <v>0.1554625224259089</v>
+        <v>0.06969646206276757</v>
       </c>
       <c r="T2">
-        <v>0.1554625224259089</v>
+        <v>0.0696964620627676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.1061463333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.318439</v>
+      </c>
+      <c r="I3">
+        <v>0.08164208687920578</v>
+      </c>
+      <c r="J3">
+        <v>0.08164208687920581</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>5.833333333333333E-05</v>
+      </c>
+      <c r="N3">
+        <v>0.000175</v>
+      </c>
+      <c r="O3">
+        <v>0.0001124669989691596</v>
+      </c>
+      <c r="P3">
+        <v>0.0001124669989691596</v>
+      </c>
+      <c r="Q3">
+        <v>6.191869444444445E-06</v>
+      </c>
+      <c r="R3">
+        <v>5.5726825E-05</v>
+      </c>
+      <c r="S3">
+        <v>9.182040500883678E-06</v>
+      </c>
+      <c r="T3">
+        <v>9.182040500883679E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1061463333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.318439</v>
+      </c>
+      <c r="I4">
+        <v>0.08164208687920578</v>
+      </c>
+      <c r="J4">
+        <v>0.08164208687920581</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.075832</v>
+      </c>
+      <c r="N4">
+        <v>0.227496</v>
+      </c>
+      <c r="O4">
+        <v>0.1462045279856454</v>
+      </c>
+      <c r="P4">
+        <v>0.1462045279856453</v>
+      </c>
+      <c r="Q4">
+        <v>0.008049288749333333</v>
+      </c>
+      <c r="R4">
+        <v>0.072443598744</v>
+      </c>
+      <c r="S4">
+        <v>0.01193644277593733</v>
+      </c>
+      <c r="T4">
+        <v>0.01193644277593733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.414545</v>
+      </c>
+      <c r="H5">
+        <v>1.243635</v>
+      </c>
+      <c r="I5">
+        <v>0.3188458596968998</v>
+      </c>
+      <c r="J5">
+        <v>0.3188458596968999</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.4427803333333333</v>
+      </c>
+      <c r="N5">
+        <v>1.328341</v>
+      </c>
+      <c r="O5">
+        <v>0.8536830050153855</v>
+      </c>
+      <c r="P5">
+        <v>0.8536830050153855</v>
+      </c>
+      <c r="Q5">
+        <v>0.1835523732816667</v>
+      </c>
+      <c r="R5">
+        <v>1.651971359535</v>
+      </c>
+      <c r="S5">
+        <v>0.2721932916427635</v>
+      </c>
+      <c r="T5">
+        <v>0.2721932916427635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.414545</v>
+      </c>
+      <c r="H6">
+        <v>1.243635</v>
+      </c>
+      <c r="I6">
+        <v>0.3188458596968998</v>
+      </c>
+      <c r="J6">
+        <v>0.3188458596968999</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>5.833333333333333E-05</v>
+      </c>
+      <c r="N6">
+        <v>0.000175</v>
+      </c>
+      <c r="O6">
+        <v>0.0001124669989691596</v>
+      </c>
+      <c r="P6">
+        <v>0.0001124669989691596</v>
+      </c>
+      <c r="Q6">
+        <v>2.418179166666667E-05</v>
+      </c>
+      <c r="R6">
+        <v>0.000217636125</v>
+      </c>
+      <c r="S6">
+        <v>3.585963697385205E-05</v>
+      </c>
+      <c r="T6">
+        <v>3.585963697385205E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.414545</v>
+      </c>
+      <c r="H7">
+        <v>1.243635</v>
+      </c>
+      <c r="I7">
+        <v>0.3188458596968998</v>
+      </c>
+      <c r="J7">
+        <v>0.3188458596968999</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.075832</v>
+      </c>
+      <c r="N7">
+        <v>0.227496</v>
+      </c>
+      <c r="O7">
+        <v>0.1462045279856454</v>
+      </c>
+      <c r="P7">
+        <v>0.1462045279856453</v>
+      </c>
+      <c r="Q7">
+        <v>0.03143577644</v>
+      </c>
+      <c r="R7">
+        <v>0.28292198796</v>
+      </c>
+      <c r="S7">
+        <v>0.04661670841716255</v>
+      </c>
+      <c r="T7">
+        <v>0.04661670841716255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.566439206077244</v>
-      </c>
-      <c r="H3">
-        <v>0.566439206077244</v>
-      </c>
-      <c r="I3">
-        <v>0.844537477574091</v>
-      </c>
-      <c r="J3">
-        <v>0.844537477574091</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.373032339735939</v>
-      </c>
-      <c r="N3">
-        <v>0.373032339735939</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.211300142361162</v>
-      </c>
-      <c r="R3">
-        <v>0.211300142361162</v>
-      </c>
-      <c r="S3">
-        <v>0.844537477574091</v>
-      </c>
-      <c r="T3">
-        <v>0.844537477574091</v>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1461673333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.4385019999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.112424101258657</v>
+      </c>
+      <c r="J8">
+        <v>0.1124241012586571</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.4427803333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.328341</v>
+      </c>
+      <c r="O8">
+        <v>0.8536830050153855</v>
+      </c>
+      <c r="P8">
+        <v>0.8536830050153855</v>
+      </c>
+      <c r="Q8">
+        <v>0.06472002057577778</v>
+      </c>
+      <c r="R8">
+        <v>0.582480185182</v>
+      </c>
+      <c r="S8">
+        <v>0.09597454459864432</v>
+      </c>
+      <c r="T8">
+        <v>0.09597454459864435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1461673333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.4385019999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.112424101258657</v>
+      </c>
+      <c r="J9">
+        <v>0.1124241012586571</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>5.833333333333333E-05</v>
+      </c>
+      <c r="N9">
+        <v>0.000175</v>
+      </c>
+      <c r="O9">
+        <v>0.0001124669989691596</v>
+      </c>
+      <c r="P9">
+        <v>0.0001124669989691596</v>
+      </c>
+      <c r="Q9">
+        <v>8.526427777777777E-06</v>
+      </c>
+      <c r="R9">
+        <v>7.673784999999999E-05</v>
+      </c>
+      <c r="S9">
+        <v>1.264400128036608E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.264400128036608E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1461673333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.4385019999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.112424101258657</v>
+      </c>
+      <c r="J10">
+        <v>0.1124241012586571</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.075832</v>
+      </c>
+      <c r="N10">
+        <v>0.227496</v>
+      </c>
+      <c r="O10">
+        <v>0.1462045279856454</v>
+      </c>
+      <c r="P10">
+        <v>0.1462045279856453</v>
+      </c>
+      <c r="Q10">
+        <v>0.01108416122133333</v>
+      </c>
+      <c r="R10">
+        <v>0.09975745099199998</v>
+      </c>
+      <c r="S10">
+        <v>0.01643691265873235</v>
+      </c>
+      <c r="T10">
+        <v>0.01643691265873235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6332836666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.899851</v>
+      </c>
+      <c r="I11">
+        <v>0.4870879521652373</v>
+      </c>
+      <c r="J11">
+        <v>0.4870879521652373</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4427803333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.328341</v>
+      </c>
+      <c r="O11">
+        <v>0.8536830050153855</v>
+      </c>
+      <c r="P11">
+        <v>0.8536830050153855</v>
+      </c>
+      <c r="Q11">
+        <v>0.2804055530212222</v>
+      </c>
+      <c r="R11">
+        <v>2.523649977191</v>
+      </c>
+      <c r="S11">
+        <v>0.4158187067112101</v>
+      </c>
+      <c r="T11">
+        <v>0.4158187067112101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6332836666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.899851</v>
+      </c>
+      <c r="I12">
+        <v>0.4870879521652373</v>
+      </c>
+      <c r="J12">
+        <v>0.4870879521652373</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>5.833333333333333E-05</v>
+      </c>
+      <c r="N12">
+        <v>0.000175</v>
+      </c>
+      <c r="O12">
+        <v>0.0001124669989691596</v>
+      </c>
+      <c r="P12">
+        <v>0.0001124669989691596</v>
+      </c>
+      <c r="Q12">
+        <v>3.694154722222222E-05</v>
+      </c>
+      <c r="R12">
+        <v>0.000332473925</v>
+      </c>
+      <c r="S12">
+        <v>5.478132021405781E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.478132021405781E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6332836666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.899851</v>
+      </c>
+      <c r="I13">
+        <v>0.4870879521652373</v>
+      </c>
+      <c r="J13">
+        <v>0.4870879521652373</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.075832</v>
+      </c>
+      <c r="N13">
+        <v>0.227496</v>
+      </c>
+      <c r="O13">
+        <v>0.1462045279856454</v>
+      </c>
+      <c r="P13">
+        <v>0.1462045279856453</v>
+      </c>
+      <c r="Q13">
+        <v>0.04802316701066667</v>
+      </c>
+      <c r="R13">
+        <v>0.432208503096</v>
+      </c>
+      <c r="S13">
+        <v>0.07121446413381312</v>
+      </c>
+      <c r="T13">
+        <v>0.07121446413381312</v>
       </c>
     </row>
   </sheetData>
